--- a/Recycling/Met_rec_tech/metrec_tech_Min_full_Avg.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Min_full_Avg.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.918247293851079E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.303327905022576E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0006419765699649758</v>
+      </c>
+      <c r="E7">
         <v>43.69176021640899</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.231848102916502E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0006419765699649758</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>116.4338434963778</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>802.4000724196968</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>53.89299056861084</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>443873.1463485212</v>
+      </c>
+      <c r="E7">
         <v>2775052.188918366</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>101671.0846431091</v>
-      </c>
-      <c r="F7">
-        <v>443873.1463485212</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7395215.726224134</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>732.2246415149442</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.17967614368408</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>416259.3796020027</v>
+      </c>
+      <c r="E7">
         <v>2772562.677428332</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92779.24574550254</v>
-      </c>
-      <c r="F7">
-        <v>416259.3796020027</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7388581.445760784</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.006968156990192E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.03456441939712E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.006576087271966328</v>
+      </c>
+      <c r="E7">
         <v>84.65392045011517</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.611352353148401E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.006576087271966328</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>225.5935965093429</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.174679198309173E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.147207100756801E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.05790964592694571</v>
+      </c>
+      <c r="E7">
         <v>171.9100050255109</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0007823856863848489</v>
-      </c>
-      <c r="F7">
-        <v>0.05790964592694571</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>458.1216806432201</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.460919073370131E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.996164604316294E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.3658731281429783</v>
+      </c>
+      <c r="E7">
         <v>295.7622846725984</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.005652373376873849</v>
-      </c>
-      <c r="F7">
-        <v>0.3658731281429783</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>788.1746900361161</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0002995858347586028</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.012160407519233E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.188876024818235</v>
+      </c>
+      <c r="E7">
         <v>555.3433172887372</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.03796013710687535</v>
-      </c>
-      <c r="F7">
-        <v>2.188876024818235</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1479.930233336582</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.00166400170378574</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0001117622383281279</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>11.00522465572022</v>
+      </c>
+      <c r="E7">
         <v>986.2417668282765</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.2108435229345134</v>
-      </c>
-      <c r="F7">
-        <v>11.00522465572022</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2628.228273699719</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.006749661421282338</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0004533392403885783</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40.96174657140006</v>
+      </c>
+      <c r="E7">
         <v>1422.687642723515</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.8552409468335423</v>
-      </c>
-      <c r="F7">
-        <v>40.96174657140006</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3791.309608874235</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.02914030632468783</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.001957201037117306</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>164.1096392039317</v>
+      </c>
+      <c r="E7">
         <v>2370.841339872679</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.692330861747236</v>
-      </c>
-      <c r="F7">
-        <v>164.1096392039317</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6318.037271883716</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1163380006089614</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.007813811320682894</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>613.2598413232491</v>
+      </c>
+      <c r="E7">
         <v>3895.394504057772</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14.74103893267974</v>
-      </c>
-      <c r="F7">
-        <v>613.2598413232491</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>10380.80754347302</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.4344636291305961</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.02918063578500356</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2153.277800960227</v>
+      </c>
+      <c r="E7">
         <v>6316.156133549093</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55.05032954257353</v>
-      </c>
-      <c r="F7">
-        <v>2153.277800960227</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>16831.87702005533</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.34847375852272</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.09056988657906336</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6258.174827694605</v>
+      </c>
+      <c r="E7">
         <v>8959.904207071511</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>170.8633814405541</v>
-      </c>
-      <c r="F7">
-        <v>6258.174827694605</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>23877.18139579328</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.089685910410116</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.2746826823353395</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>17364.18367203029</v>
+      </c>
+      <c r="E7">
         <v>13229.48538791562</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>518.1988594631518</v>
-      </c>
-      <c r="F7">
-        <v>17364.18367203029</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>35255.15620255747</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.00332321798573</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.7390353201515053</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40172.3641618782</v>
+      </c>
+      <c r="E7">
         <v>19217.40000648574</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1394.216980661196</v>
-      </c>
-      <c r="F7">
-        <v>40172.3641618782</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>51212.30487578543</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>20.31812030004144</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.36466122491735</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>57449.28937408157</v>
+      </c>
+      <c r="E7">
         <v>23320.71615315143</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2574.482979026807</v>
-      </c>
-      <c r="F7">
-        <v>57449.28937408157</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62147.20124229995</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>29.33561019771155</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.97031857056311</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>64554.47840035099</v>
+      </c>
+      <c r="E7">
         <v>31772.40666633571</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3717.077565153483</v>
-      </c>
-      <c r="F7">
-        <v>64554.47840035099</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>84670.04778402249</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>23.60980048746471</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.585746062012051</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>60877.41741756297</v>
+      </c>
+      <c r="E7">
         <v>41094.66776340823</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2991.567556230716</v>
-      </c>
-      <c r="F7">
-        <v>60877.41741756297</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>109512.871333193</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.66038166412038</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8503312163992077</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>62270.98660890902</v>
+      </c>
+      <c r="E7">
         <v>51879.16246421247</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1604.180732318752</v>
-      </c>
-      <c r="F7">
-        <v>62270.98660890902</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>138252.390225576</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.27399145478794</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.8915441571726693</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>66068.90920629761</v>
+      </c>
+      <c r="E7">
         <v>63998.57934477887</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1681.930442356379</v>
-      </c>
-      <c r="F7">
-        <v>66068.90920629761</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>170549.3332040663</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>21.98089425818775</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.476341002031377</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>70157.31487484896</v>
+      </c>
+      <c r="E7">
         <v>77234.26335640084</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2785.170935885097</v>
-      </c>
-      <c r="F7">
-        <v>70157.31487484896</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>205821.0080723616</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>31.10185558910562</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.088947979373113</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>72868.21496581589</v>
+      </c>
+      <c r="E7">
         <v>91302.40593445479</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3940.876254686751</v>
-      </c>
-      <c r="F7">
-        <v>72868.21496581589</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>243311.0955191633</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0007756778157993223</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.002067097982801606</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>44.08833987498308</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.961181792896666</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>76871.35937266177</v>
+      </c>
+      <c r="E7">
         <v>105931.0634195145</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5586.377032203182</v>
-      </c>
-      <c r="F7">
-        <v>76871.35937266177</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>282294.8949298785</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>58.48541663721626</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.928157680402272</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82339.95905011703</v>
+      </c>
+      <c r="E7">
         <v>120968.1243643129</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7410.612174271718</v>
-      </c>
-      <c r="F7">
-        <v>82339.95905011703</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>322367.0456516664</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>66.96859718302153</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.497928278463455</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>81194.1703065827</v>
+      </c>
+      <c r="E7">
         <v>136513.9269451626</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8485.505107312503</v>
-      </c>
-      <c r="F7">
-        <v>81194.1703065827</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>363794.9381366311</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>85.33824562426106</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.731720901645822</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>81156.22806818092</v>
+      </c>
+      <c r="E7">
         <v>153076.7276282013</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>10813.09971470249</v>
-      </c>
-      <c r="F7">
-        <v>81156.22806818092</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>407933.0212222916</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>140.6100252476864</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.444035494256617</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82537.52372753911</v>
+      </c>
+      <c r="E7">
         <v>171736.9904883646</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17816.51606226388</v>
-      </c>
-      <c r="F7">
-        <v>82537.52372753911</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>457660.6155032276</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>220.0151423610375</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.77725937443958</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>83222.73120321269</v>
+      </c>
+      <c r="E7">
         <v>194293.3430111476</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27877.83666855715</v>
-      </c>
-      <c r="F7">
-        <v>83222.73120321269</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>517770.8698504647</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>309.4311110720741</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.78285947850658</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>87481.37902574262</v>
+      </c>
+      <c r="E7">
         <v>223354.6387250123</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39207.61944867425</v>
-      </c>
-      <c r="F7">
-        <v>87481.37902574262</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>595216.0984288107</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>377.4130606250516</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.34884930331565</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>89976.71911833284</v>
+      </c>
+      <c r="E7">
         <v>262336.5804235336</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>47821.52513584761</v>
-      </c>
-      <c r="F7">
-        <v>89976.71911833284</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>699098.7819469251</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>341.1460981779842</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.9129882755145</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>87850.64447623829</v>
+      </c>
+      <c r="E7">
         <v>315326.1666550598</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43226.1848119305</v>
-      </c>
-      <c r="F7">
-        <v>87850.64447623829</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>840310.3321261783</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>314.869668634376</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.14813877182483</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>82401.26490323638</v>
+      </c>
+      <c r="E7">
         <v>386780.2514936427</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39896.73210613671</v>
-      </c>
-      <c r="F7">
-        <v>82401.26490323638</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1030727.785899256</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.02676139624248864</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.07131624375875451</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>303.1469494226415</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.3607854082947</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>81206.74528338399</v>
+      </c>
+      <c r="E7">
         <v>481050.5247356116</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38411.36138124445</v>
-      </c>
-      <c r="F7">
-        <v>81206.74528338399</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1281947.928705357</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>273.6018642368894</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.37639750505968</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>95712.33294525213</v>
+      </c>
+      <c r="E7">
         <v>601809.3141313551</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34667.74150886576</v>
-      </c>
-      <c r="F7">
-        <v>95712.33294525213</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1603757.119172247</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>241.4620726840423</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.2177368287073</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>128524.5427354587</v>
+      </c>
+      <c r="E7">
         <v>751451.4067456429</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30595.34971866135</v>
-      </c>
-      <c r="F7">
-        <v>128524.5427354587</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2002537.207354157</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>231.3371815218778</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>15.53770116736287</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>189969.102340628</v>
+      </c>
+      <c r="E7">
         <v>930538.4803310172</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>29312.43773780068</v>
-      </c>
-      <c r="F7">
-        <v>189969.102340628</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2479785.004073334</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>327.2054112572468</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.97666569210091</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>280748.9983334542</v>
+      </c>
+      <c r="E7">
         <v>1137342.421293991</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41459.77824166785</v>
-      </c>
-      <c r="F7">
-        <v>280748.9983334542</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3030895.272399714</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>484.104585538021</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.514757612055</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>385713.4589272747</v>
+      </c>
+      <c r="E7">
         <v>1367533.028887851</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61340.27149814244</v>
-      </c>
-      <c r="F7">
-        <v>385713.4589272747</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3644328.492900953</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>655.6781477755354</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.03845095321523</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>505088.0490414293</v>
+      </c>
+      <c r="E7">
         <v>1614063.305569757</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83080.13764267828</v>
-      </c>
-      <c r="F7">
-        <v>505088.0490414293</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4301305.174776987</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>929.7093114932725</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>62.44368224539391</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>698589.2388830421</v>
+      </c>
+      <c r="E7">
         <v>1867308.948596755</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>117802.2751384772</v>
-      </c>
-      <c r="F7">
-        <v>698589.2388830421</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4976177.585966112</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1240.045339224752</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>83.28732021416616</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>914613.4572273124</v>
+      </c>
+      <c r="E7">
         <v>2115520.017305236</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>157124.5554171237</v>
-      </c>
-      <c r="F7">
-        <v>914613.4572273124</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5637633.397884129</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1356.192119164032</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>91.08828824868554</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>992597.0341368259</v>
+      </c>
+      <c r="E7">
         <v>2345623.866581567</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>171841.3650238586</v>
-      </c>
-      <c r="F7">
-        <v>992597.0341368259</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6250835.416796892</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.2077639673608828</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.5536686354604324</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1363.859035128102</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>91.60323465004365</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>993259.4033035969</v>
+      </c>
+      <c r="E7">
         <v>2544363.768752697</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>172812.8301180528</v>
-      </c>
-      <c r="F7">
-        <v>993259.4033035969</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6780455.8887409</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1356.12087031087</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>91.08350283813611</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>981358.7372257044</v>
+      </c>
+      <c r="E7">
         <v>2699673.266280059</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>171832.3371730029</v>
-      </c>
-      <c r="F7">
-        <v>981358.7372257044</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7194339.001690201</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1330.050055074201</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>89.33246336548396</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>953315.8770547599</v>
+      </c>
+      <c r="E7">
         <v>2802098.410686056</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>168528.9375924805</v>
-      </c>
-      <c r="F7">
-        <v>953315.8770547599</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7467290.999384792</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1302.514847094774</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>87.48306833805704</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>917130.5481229461</v>
+      </c>
+      <c r="E7">
         <v>2846024.88760689</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>165039.9866846128</v>
-      </c>
-      <c r="F7">
-        <v>917130.5481229461</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7584350.337663106</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1306.937449511321</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>87.7801112702753</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>891473.5198892092</v>
+      </c>
+      <c r="E7">
         <v>2830474.65991024</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>165600.3689678292</v>
-      </c>
-      <c r="F7">
-        <v>891473.5198892092</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7542910.652720296</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1304.879321431105</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>87.64187763716804</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>848892.5979888085</v>
+      </c>
+      <c r="E7">
         <v>2759315.897829073</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>165339.5861969365</v>
-      </c>
-      <c r="F7">
-        <v>848892.5979888085</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7353280.202344369</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1212.428348697793</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.43243228336809</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>739664.3936337635</v>
+      </c>
+      <c r="E7">
         <v>2640860.086386934</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>153625.2419474886</v>
-      </c>
-      <c r="F7">
-        <v>739664.3936337635</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7037608.200521229</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>951.7617041871436</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>63.92482542111943</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>524082.7594128068</v>
+      </c>
+      <c r="E7">
         <v>2486955.718721591</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>120596.5055494996</v>
-      </c>
-      <c r="F7">
-        <v>524082.7594128068</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6627469.607582931</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>618.6330026174895</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.55032348757968</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>281135.8717346223</v>
+      </c>
+      <c r="E7">
         <v>2311777.85436551</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78386.19478494396</v>
-      </c>
-      <c r="F7">
-        <v>281135.8717346223</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6160639.433164702</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>475.0106794944696</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.90396779599851</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>192077.3255690092</v>
+      </c>
+      <c r="E7">
         <v>2130520.67644035</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>60187.99432012298</v>
-      </c>
-      <c r="F7">
-        <v>192077.3255690092</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5677608.541696815</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.785195776158428E-14</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7117,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.199022064361274E-15</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7130,13 +7130,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4.852789538778787E-10</v>
+      </c>
+      <c r="E7">
         <v>0.8534287128923175</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.261998684957607E-12</v>
-      </c>
-      <c r="F7">
-        <v>4.852789538778787E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.27429576423658</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>439.4287372621251</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.51411597138703</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>186467.6616777185</v>
+      </c>
+      <c r="E7">
         <v>1958128.941196139</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55679.45202954016</v>
-      </c>
-      <c r="F7">
-        <v>186467.6616777185</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5218203.101813554</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>399.5344764475467</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.83462839938541</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>186214.2130226933</v>
+      </c>
+      <c r="E7">
         <v>1808120.833729357</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50624.50137902261</v>
-      </c>
-      <c r="F7">
-        <v>186214.2130226933</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4818447.623401497</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>345.1930679570294</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.18480194008188</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>189430.1799677588</v>
+      </c>
+      <c r="E7">
         <v>1691518.337062139</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43738.97116514284</v>
-      </c>
-      <c r="F7">
-        <v>189430.1799677588</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4507714.506196053</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>310.2695119958256</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.83917045681968</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>211821.9240447369</v>
+      </c>
+      <c r="E7">
         <v>1615937.282512442</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39313.85215504298</v>
-      </c>
-      <c r="F7">
-        <v>211821.9240447369</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4306299.121850295</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>356.5694800607191</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.94889567746142</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>280356.8409363414</v>
+      </c>
+      <c r="E7">
         <v>1584964.812721878</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45180.46176027843</v>
-      </c>
-      <c r="F7">
-        <v>280356.8409363414</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4223760.819835711</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>483.18885064266</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.45325251780669</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>383868.728620832</v>
+      </c>
+      <c r="E7">
         <v>1597990.035139989</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61224.2399033594</v>
-      </c>
-      <c r="F7">
-        <v>383868.728620832</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4258471.637184889</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>661.2841430264631</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.41497615500744</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>509932.3772234668</v>
+      </c>
+      <c r="E7">
         <v>1650592.894285483</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83790.4661150414</v>
-      </c>
-      <c r="F7">
-        <v>509932.3772234668</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4398652.601258481</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>874.3518529583196</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>58.72561305114536</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>658322.842009671</v>
+      </c>
+      <c r="E7">
         <v>1735442.238176152</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>110788.0025258612</v>
-      </c>
-      <c r="F7">
-        <v>658322.842009671</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4624766.980226123</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1097.984709035168</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>73.74585521916595</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>813923.2355405138</v>
+      </c>
+      <c r="E7">
         <v>1843488.285277872</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>139124.2350620877</v>
-      </c>
-      <c r="F7">
-        <v>813923.2355405138</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4912698.07927851</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1270.170047216237</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>85.31063833123889</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>931764.8751409941</v>
+      </c>
+      <c r="E7">
         <v>1965155.28976229</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>160941.6185522441</v>
-      </c>
-      <c r="F7">
-        <v>931764.8751409941</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5236927.565310788</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.907822386065532E-12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8382,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.281383905521821E-13</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4.398035392699554E-08</v>
+      </c>
+      <c r="E7">
         <v>2.72583590393368</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.417377290517372E-10</v>
-      </c>
-      <c r="F7">
-        <v>4.398035392699554E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7.264059618184618</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1346.474560378749</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>90.43561095967949</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>980325.0948863298</v>
+      </c>
+      <c r="E7">
         <v>2091292.950335822</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>170610.0656063455</v>
-      </c>
-      <c r="F7">
-        <v>980325.0948863298</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5573070.869161981</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1356.301661673662</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>91.09564564263565</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>979840.037814369</v>
+      </c>
+      <c r="E7">
         <v>2213790.945610761</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>171855.24501484</v>
-      </c>
-      <c r="F7">
-        <v>979840.037814369</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5899514.856307769</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1342.290185146469</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>90.15456849385723</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>958868.8057195365</v>
+      </c>
+      <c r="E7">
         <v>2325903.968225603</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>170079.868784283</v>
-      </c>
-      <c r="F7">
-        <v>958868.8057195365</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6198284.007845407</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1321.140995996292</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>88.7340887474296</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>926946.3841235014</v>
+      </c>
+      <c r="E7">
         <v>2422399.449417305</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>167400.0821365369</v>
-      </c>
-      <c r="F7">
-        <v>926946.3841235014</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6455434.090596313</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1297.691990229868</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>87.15914242071466</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>885406.5238583859</v>
+      </c>
+      <c r="E7">
         <v>2499617.959067685</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>164428.8886732993</v>
-      </c>
-      <c r="F7">
-        <v>885406.5238583859</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6661213.116735874</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1261.23731571078</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>84.71067376079235</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>827008.5675866</v>
+      </c>
+      <c r="E7">
         <v>2555477.466204526</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>159809.7635933496</v>
-      </c>
-      <c r="F7">
-        <v>827008.5675866</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6810072.697570821</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1180.90052479161</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.31487425361753</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>734891.9085134726</v>
+      </c>
+      <c r="E7">
         <v>2589414.413375807</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>149630.3917933601</v>
-      </c>
-      <c r="F7">
-        <v>734891.9085134726</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6900511.013081896</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1038.390430531935</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>69.74322112214658</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>604977.475006722</v>
+      </c>
+      <c r="E7">
         <v>2602254.35675942</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>131573.1204221353</v>
-      </c>
-      <c r="F7">
-        <v>604977.475006722</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6934728.081724245</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>868.407345758929</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>58.32635178305286</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>469988.1795516176</v>
+      </c>
+      <c r="E7">
         <v>2596025.30700723</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>110034.78163842</v>
-      </c>
-      <c r="F7">
-        <v>469988.1795516176</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6918128.333845348</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>732.5497681405825</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>49.2015131882849</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>376341.8229201133</v>
+      </c>
+      <c r="E7">
         <v>2573740.978530015</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92820.44212348307</v>
-      </c>
-      <c r="F7">
-        <v>376341.8229201133</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6858742.99433313</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.825192103924114E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.59906452643752E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.898976911209613E-06</v>
+      </c>
+      <c r="E7">
         <v>8.082442719214566</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.244937497351545E-08</v>
-      </c>
-      <c r="F7">
-        <v>1.898976911209613E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>21.53884087013818</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>643.3474203149826</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.21026087500186</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>329971.0773268209</v>
+      </c>
+      <c r="E7">
         <v>2539177.521451305</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81517.72697193595</v>
-      </c>
-      <c r="F7">
-        <v>329971.0773268209</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6766635.097277408</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>590.1184641984308</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.63515198784081</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>318725.708746666</v>
+      </c>
+      <c r="E7">
         <v>2496651.764786988</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74773.15417239661</v>
-      </c>
-      <c r="F7">
-        <v>318725.708746666</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6653308.527885529</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>550.8963360537551</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.00080803045863</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>324903.4396217132</v>
+      </c>
+      <c r="E7">
         <v>2450791.722092263</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69803.36859092873</v>
-      </c>
-      <c r="F7">
-        <v>324903.4396217132</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6531096.444705386</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>530.3158903628877</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.61852778941746</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>348188.7920459032</v>
+      </c>
+      <c r="E7">
         <v>2406281.124824644</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67195.6466978845</v>
-      </c>
-      <c r="F7">
-        <v>348188.7920459032</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6412480.488504062</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>558.9635916432271</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.54264313783457</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>402134.7564755171</v>
+      </c>
+      <c r="E7">
         <v>2367564.230319739</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>70825.56020589382</v>
-      </c>
-      <c r="F7">
-        <v>402134.7564755171</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6309304.127260626</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>652.291833036212</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.81101001124426</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>489935.2789179251</v>
+      </c>
+      <c r="E7">
         <v>2338515.878091607</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82651.06204270766</v>
-      </c>
-      <c r="F7">
-        <v>489935.2789179251</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6231893.391680148</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>800.0858283394165</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>53.73755497148295</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>603082.5312251637</v>
+      </c>
+      <c r="E7">
         <v>2322109.447387582</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>101377.8497421432</v>
-      </c>
-      <c r="F7">
-        <v>603082.5312251637</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6188172.017776579</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>978.6636067384069</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>65.73168465544236</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>729842.3122568516</v>
+      </c>
+      <c r="E7">
         <v>2320138.683812661</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>124005.2111383489</v>
-      </c>
-      <c r="F7">
-        <v>729842.3122568516</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6182920.144734292</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1162.732585502298</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>78.09462937275983</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>857468.7821050676</v>
+      </c>
+      <c r="E7">
         <v>2333055.28783709</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>147328.3554940558</v>
-      </c>
-      <c r="F7">
-        <v>857468.7821050676</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6217341.505742315</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1324.402261204345</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>88.95313077040615</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>967869.1534049188</v>
+      </c>
+      <c r="E7">
         <v>2359965.611556903</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>167813.3128706914</v>
-      </c>
-      <c r="F7">
-        <v>967869.1534049188</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6289054.625216333</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.885874364398442E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.938289953460668E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4.571923951453353E-05</v>
+      </c>
+      <c r="E7">
         <v>20.98226246426367</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.656654415388238E-07</v>
-      </c>
-      <c r="F7">
-        <v>4.571923951453353E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>55.91547357816182</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1431.578321891837</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>96.15158279745268</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1038052.834796936</v>
+      </c>
+      <c r="E7">
         <v>2398792.544144336</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>181393.4541398879</v>
-      </c>
-      <c r="F7">
-        <v>1038052.834796936</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6392524.226119065</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1475.04330715144</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>99.070897140978</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1060811.585794436</v>
+      </c>
+      <c r="E7">
         <v>2446569.167227714</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>186900.8467078052</v>
-      </c>
-      <c r="F7">
-        <v>1060811.585794436</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6519843.789975552</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1473.242555455748</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>98.94995012528337</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1048105.507241117</v>
+      </c>
+      <c r="E7">
         <v>2499804.730188748</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>186672.6757686853</v>
-      </c>
-      <c r="F7">
-        <v>1048105.507241117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6661710.841692977</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1449.864298506376</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>97.37975562432371</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1015256.25519063</v>
+      </c>
+      <c r="E7">
         <v>2554859.537967062</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>183710.446797369</v>
-      </c>
-      <c r="F7">
-        <v>1015256.25519063</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6808425.98525398</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1417.432793063713</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>95.20150206101511</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>970075.9363711483</v>
+      </c>
+      <c r="E7">
         <v>2608279.223119624</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>179601.092314111</v>
-      </c>
-      <c r="F7">
-        <v>970075.9363711483</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6950783.702816095</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1370.043976685202</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>92.0186446287579</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>909001.1377050469</v>
+      </c>
+      <c r="E7">
         <v>2657059.892581866</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>173596.5161347656</v>
-      </c>
-      <c r="F7">
-        <v>909001.1377050469</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7080778.942323112</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1293.844282503797</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>86.90071213971206</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>825476.1080157498</v>
+      </c>
+      <c r="E7">
         <v>2698834.547008998</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>163941.3505594009</v>
-      </c>
-      <c r="F7">
-        <v>825476.1080157498</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7192103.905006973</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1180.26892340462</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.27245291199239</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>719121.9048119884</v>
+      </c>
+      <c r="E7">
         <v>2731982.399062533</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>149550.3623912145</v>
-      </c>
-      <c r="F7">
-        <v>719121.9048119884</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7280439.366868106</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1040.831709752659</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>69.90718900118856</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>604216.0534437089</v>
+      </c>
+      <c r="E7">
         <v>2755667.965969728</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>131882.4517829104</v>
-      </c>
-      <c r="F7">
-        <v>604216.0534437089</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7343558.856143331</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>906.7341284775398</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>60.90056009954826</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>506658.8524707514</v>
+      </c>
+      <c r="E7">
         <v>2769818.816554954</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>114891.1191486237</v>
-      </c>
-      <c r="F7">
-        <v>506658.8524707514</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7381269.35153697</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
